--- a/upusty.xlsx
+++ b/upusty.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wojte\Documents\programowanie\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F007921-51A0-47CF-B22D-9A69F6ED216A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB08888-5A8F-415C-906C-08195A34BC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>numer</t>
   </si>
@@ -44,12 +44,15 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +60,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +77,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -84,10 +99,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -381,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,7 +434,7 @@
         <v>102</v>
       </c>
       <c r="C2">
-        <f>IF(A2&lt;=300, A2*0.9*12, IF(A2&lt;=600, 300 * 0.9 * 12 + (A2 - 300 ) * 0.75 * 12, A3*0.65*12))</f>
+        <f>IF(A2 &lt;= 300,A2*(1-0.1)*12,IF(A2 &lt;= 600,300*(1-0.1)*12+(A2-300)*(1-0.25)*12,A2*(1-0.35)*12))</f>
         <v>108</v>
       </c>
       <c r="D2">
@@ -439,7 +456,7 @@
         <v>204</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="1">IF(A3&lt;=300, A3*0.9*12, IF(A3&lt;=600, 300 * 0.9 * 12 + (A3 - 300 ) * 0.75 * 12, A4*0.65*12))</f>
+        <f t="shared" ref="C3:C66" si="1">IF(A3 &lt;= 300,A3*(1-0.1)*12,IF(A3 &lt;= 600,300*(1-0.1)*12+(A3-300)*(1-0.25)*12,A3*(1-0.35)*12))</f>
         <v>216</v>
       </c>
       <c r="D3">
@@ -1572,7 +1589,6 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -1617,7 +1633,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F56" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1742,7 +1758,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="1"/>
-        <v>4836</v>
+        <v>4758</v>
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
@@ -1764,7 +1780,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="1"/>
-        <v>4914</v>
+        <v>4836</v>
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
@@ -1786,52 +1802,52 @@
       </c>
       <c r="C64">
         <f t="shared" si="1"/>
+        <v>4914</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="4"/>
+        <v>640</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>5760</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
         <v>4992</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="4"/>
-        <v>640</v>
-      </c>
-      <c r="B65">
-        <f t="shared" si="0"/>
-        <v>5760</v>
-      </c>
-      <c r="C65">
+      <c r="D65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="4"/>
+        <v>650</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>5850</v>
+      </c>
+      <c r="C66">
         <f t="shared" si="1"/>
         <v>5070</v>
       </c>
-      <c r="D65">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="4"/>
-        <v>650</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>5850</v>
-      </c>
-      <c r="C66">
-        <f t="shared" si="1"/>
-        <v>5148</v>
-      </c>
       <c r="D66">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1841,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="4"/>
         <v>660</v>
@@ -1851,8 +1867,8 @@
         <v>5940</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="6">IF(A67&lt;=300, A67*0.9*12, IF(A67&lt;=600, 300 * 0.9 * 12 + (A67 - 300 ) * 0.75 * 12, A68*0.65*12))</f>
-        <v>5226</v>
+        <f t="shared" ref="C67:C101" si="6">IF(A67 &lt;= 300,A67*(1-0.1)*12,IF(A67 &lt;= 600,300*(1-0.1)*12+(A67-300)*(1-0.25)*12,A67*(1-0.35)*12))</f>
+        <v>5148</v>
       </c>
       <c r="D67">
         <f t="shared" ref="D67:D101" si="7">IF(B67 &lt; C67, 1, 0)</f>
@@ -1863,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68:A101" si="9">10 + A67</f>
         <v>670</v>
@@ -1874,271 +1890,274 @@
       </c>
       <c r="C68">
         <f t="shared" si="6"/>
+        <v>5226</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="9"/>
+        <v>680</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="5"/>
+        <v>6120</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="6"/>
         <v>5304</v>
       </c>
-      <c r="D68">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="9"/>
-        <v>680</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="5"/>
-        <v>6120</v>
-      </c>
-      <c r="C69">
+      <c r="D69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <f t="shared" si="9"/>
+        <v>690</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="5"/>
+        <v>6210</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="6"/>
         <v>5382</v>
       </c>
-      <c r="D69">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="9"/>
-        <v>690</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="5"/>
-        <v>6210</v>
-      </c>
-      <c r="C70">
+      <c r="D70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="9"/>
+        <v>700</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="5"/>
+        <v>6300</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="6"/>
         <v>5460</v>
       </c>
-      <c r="D70">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="9"/>
-        <v>700</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="5"/>
-        <v>6300</v>
-      </c>
-      <c r="C71">
+      <c r="D71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="9"/>
+        <v>710</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="5"/>
+        <v>6390</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="6"/>
         <v>5538</v>
       </c>
-      <c r="D71">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="9"/>
-        <v>710</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="5"/>
-        <v>6390</v>
-      </c>
-      <c r="C72">
+      <c r="D72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="9"/>
+        <v>720</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="5"/>
+        <v>6480</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="6"/>
         <v>5616</v>
       </c>
-      <c r="D72">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="9"/>
-        <v>720</v>
-      </c>
-      <c r="B73">
-        <f t="shared" si="5"/>
-        <v>6480</v>
-      </c>
-      <c r="C73">
+      <c r="D73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="9"/>
+        <v>730</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="5"/>
+        <v>6570</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="6"/>
         <v>5694</v>
       </c>
-      <c r="D73">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="9"/>
-        <v>730</v>
-      </c>
-      <c r="B74">
-        <f t="shared" si="5"/>
-        <v>6570</v>
-      </c>
-      <c r="C74">
+      <c r="D74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="9"/>
+        <v>740</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="5"/>
+        <v>6660</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="6"/>
         <v>5772</v>
       </c>
-      <c r="D74">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="9"/>
-        <v>740</v>
-      </c>
-      <c r="B75">
-        <f t="shared" si="5"/>
-        <v>6660</v>
-      </c>
-      <c r="C75">
+      <c r="D75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="9"/>
+        <v>750</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="5"/>
+        <v>6750</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="6"/>
         <v>5850</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="9"/>
-        <v>750</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="5"/>
-        <v>6750</v>
-      </c>
-      <c r="C76">
+      <c r="D76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="9"/>
+        <v>760</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="5"/>
+        <v>6840</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="6"/>
         <v>5928</v>
       </c>
-      <c r="D76">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="9"/>
-        <v>760</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="5"/>
-        <v>6840</v>
-      </c>
-      <c r="C77">
+      <c r="D77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="9"/>
+        <v>770</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="5"/>
+        <v>6930</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="6"/>
         <v>6006</v>
       </c>
-      <c r="D77">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="9"/>
-        <v>770</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="5"/>
-        <v>6930</v>
-      </c>
-      <c r="C78">
+      <c r="D78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="9"/>
+        <v>780</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="5"/>
+        <v>7020</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="6"/>
         <v>6084</v>
       </c>
-      <c r="D78">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="9"/>
-        <v>780</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="5"/>
-        <v>7020</v>
-      </c>
-      <c r="C79">
+      <c r="D79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="9"/>
+        <v>790</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="5"/>
+        <v>7110</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="6"/>
         <v>6162</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="9"/>
-        <v>790</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="5"/>
-        <v>7110</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="6"/>
-        <v>6240</v>
       </c>
       <c r="D80">
         <f t="shared" si="7"/>
@@ -2160,7 +2179,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="6"/>
-        <v>6318</v>
+        <v>6240</v>
       </c>
       <c r="D81">
         <f t="shared" si="7"/>
@@ -2182,7 +2201,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="6"/>
-        <v>6396</v>
+        <v>6318</v>
       </c>
       <c r="D82">
         <f t="shared" si="7"/>
@@ -2204,7 +2223,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="6"/>
-        <v>6474</v>
+        <v>6396</v>
       </c>
       <c r="D83">
         <f t="shared" si="7"/>
@@ -2226,7 +2245,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="6"/>
-        <v>6552</v>
+        <v>6474</v>
       </c>
       <c r="D84">
         <f t="shared" si="7"/>
@@ -2248,7 +2267,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="6"/>
-        <v>6630</v>
+        <v>6552</v>
       </c>
       <c r="D85">
         <f t="shared" si="7"/>
@@ -2270,7 +2289,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="6"/>
-        <v>6708</v>
+        <v>6630</v>
       </c>
       <c r="D86">
         <f t="shared" si="7"/>
@@ -2292,7 +2311,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="6"/>
-        <v>6786</v>
+        <v>6708</v>
       </c>
       <c r="D87">
         <f t="shared" si="7"/>
@@ -2314,7 +2333,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="6"/>
-        <v>6864</v>
+        <v>6786</v>
       </c>
       <c r="D88">
         <f t="shared" si="7"/>
@@ -2336,7 +2355,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="6"/>
-        <v>6942</v>
+        <v>6864</v>
       </c>
       <c r="D89">
         <f t="shared" si="7"/>
@@ -2358,7 +2377,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="6"/>
-        <v>7020</v>
+        <v>6942</v>
       </c>
       <c r="D90">
         <f t="shared" si="7"/>
@@ -2380,7 +2399,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="6"/>
-        <v>7098</v>
+        <v>7020</v>
       </c>
       <c r="D91">
         <f t="shared" si="7"/>
@@ -2402,7 +2421,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="6"/>
-        <v>7176</v>
+        <v>7098</v>
       </c>
       <c r="D92">
         <f t="shared" si="7"/>
@@ -2424,7 +2443,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="6"/>
-        <v>7254</v>
+        <v>7176</v>
       </c>
       <c r="D93">
         <f t="shared" si="7"/>
@@ -2446,7 +2465,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="6"/>
-        <v>7332</v>
+        <v>7254</v>
       </c>
       <c r="D94">
         <f t="shared" si="7"/>
@@ -2468,7 +2487,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="6"/>
-        <v>7410</v>
+        <v>7332</v>
       </c>
       <c r="D95">
         <f t="shared" si="7"/>
@@ -2490,7 +2509,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="6"/>
-        <v>7488</v>
+        <v>7410</v>
       </c>
       <c r="D96">
         <f t="shared" si="7"/>
@@ -2512,7 +2531,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="6"/>
-        <v>7566</v>
+        <v>7488</v>
       </c>
       <c r="D97">
         <f t="shared" si="7"/>
@@ -2534,7 +2553,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="6"/>
-        <v>7644</v>
+        <v>7566</v>
       </c>
       <c r="D98">
         <f t="shared" si="7"/>
@@ -2556,7 +2575,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="6"/>
-        <v>7722</v>
+        <v>7644</v>
       </c>
       <c r="D99">
         <f t="shared" si="7"/>
@@ -2578,7 +2597,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="6"/>
-        <v>7800</v>
+        <v>7722</v>
       </c>
       <c r="D100">
         <f t="shared" si="7"/>
@@ -2600,7 +2619,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="D101">
         <f t="shared" si="7"/>
